--- a/Output/Raw_DB_output/MABM_routes.xlsx
+++ b/Output/Raw_DB_output/MABM_routes.xlsx
@@ -3133,7 +3133,7 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>Chickasaw NWR</t>
+          <t>CHICKASAW NWR</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
